--- a/Dataset/bill.xlsx
+++ b/Dataset/bill.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="12">
   <si>
     <t>bill_id</t>
   </si>
@@ -45,12 +45,6 @@
     <t>Xac nhan</t>
   </si>
   <si>
-    <t>Da hoan</t>
-  </si>
-  <si>
-    <t>Chua hoan</t>
-  </si>
-  <si>
     <t>Chua xac nhan</t>
   </si>
   <si>
@@ -58,6 +52,9 @@
   </si>
   <si>
     <t>Dong coc</t>
+  </si>
+  <si>
+    <t>Hoan coc</t>
   </si>
 </sst>
 </file>
@@ -459,8 +456,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E3" sqref="E3"/>
+    <sheetView tabSelected="1" zoomScale="102" workbookViewId="0">
+      <selection activeCell="G8" sqref="G8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -468,8 +465,8 @@
     <col min="1" max="1" width="7.81640625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="10.81640625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="14.90625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.26953125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="14.36328125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.7265625" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="8.81640625" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="6.81640625" bestFit="1" customWidth="1"/>
   </cols>
@@ -509,7 +506,7 @@
         <v>7</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="F2" s="3">
         <v>8</v>
@@ -527,10 +524,10 @@
       </c>
       <c r="C3" s="4"/>
       <c r="D3" s="2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F3" s="3">
         <v>10</v>
@@ -546,17 +543,15 @@
       </c>
       <c r="C4" s="4"/>
       <c r="D4" s="2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F4" s="3">
         <v>9</v>
       </c>
-      <c r="G4" s="3">
-        <v>3</v>
-      </c>
+      <c r="G4" s="3"/>
     </row>
     <row r="5" spans="1:7" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A5" s="5">
@@ -570,7 +565,7 @@
         <v>7</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="F5" s="3">
         <v>10</v>
@@ -589,7 +584,7 @@
         <v>7</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="F6" s="3">
         <v>8</v>
@@ -610,7 +605,7 @@
         <v>7</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="F7" s="3">
         <v>11</v>
@@ -626,17 +621,15 @@
       </c>
       <c r="C8" s="4"/>
       <c r="D8" s="2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="F8" s="3">
         <v>12</v>
       </c>
-      <c r="G8" s="3">
-        <v>7</v>
-      </c>
+      <c r="G8" s="3"/>
     </row>
     <row r="9" spans="1:7" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A9" s="5">
@@ -647,10 +640,10 @@
       </c>
       <c r="C9" s="4"/>
       <c r="D9" s="2" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="F9" s="3">
         <v>9</v>
@@ -666,10 +659,10 @@
       </c>
       <c r="C10" s="4"/>
       <c r="D10" s="2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F10" s="3">
         <v>12</v>
@@ -685,10 +678,10 @@
       </c>
       <c r="C11" s="4"/>
       <c r="D11" s="2" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="F11" s="3">
         <v>11</v>

--- a/Dataset/bill.xlsx
+++ b/Dataset/bill.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="13">
   <si>
     <t>bill_id</t>
   </si>
@@ -55,6 +55,9 @@
   </si>
   <si>
     <t>Hoan coc</t>
+  </si>
+  <si>
+    <t>class_id</t>
   </si>
 </sst>
 </file>
@@ -454,239 +457,493 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G11"/>
+  <dimension ref="A1:H21"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="102" workbookViewId="0">
-      <selection activeCell="G8" sqref="G8"/>
+    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="102" workbookViewId="0">
+      <selection activeCell="C21" sqref="C21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="7.81640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="10.81640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="14.90625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.36328125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.7265625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="8.81640625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="6.81640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.81640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.81640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="14.90625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.36328125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.7265625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="8.81640625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="6.81640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:7" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A2" s="5">
         <v>1</v>
       </c>
-      <c r="B2" s="2">
-        <v>300000</v>
-      </c>
-      <c r="C2" s="4"/>
-      <c r="D2" s="2" t="s">
-        <v>7</v>
-      </c>
+      <c r="B2" s="3">
+        <v>1</v>
+      </c>
+      <c r="C2" s="2">
+        <v>200000</v>
+      </c>
+      <c r="D2" s="4"/>
       <c r="E2" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="F2" s="3">
-        <v>8</v>
+        <v>7</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>10</v>
       </c>
       <c r="G2" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" ht="15.5" x14ac:dyDescent="0.35">
+        <v>10</v>
+      </c>
+      <c r="H2" s="3"/>
+    </row>
+    <row r="3" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A3" s="5">
         <v>2</v>
       </c>
-      <c r="B3" s="2">
+      <c r="B3" s="3">
+        <v>1</v>
+      </c>
+      <c r="C3" s="2">
         <v>200000</v>
       </c>
-      <c r="C3" s="4"/>
-      <c r="D3" s="2" t="s">
-        <v>7</v>
-      </c>
+      <c r="D3" s="4"/>
       <c r="E3" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="F3" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="F3" s="3">
-        <v>10</v>
-      </c>
-      <c r="G3" s="3"/>
-    </row>
-    <row r="4" spans="1:7" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="G3" s="3">
+        <v>8</v>
+      </c>
+      <c r="H3" s="3"/>
+    </row>
+    <row r="4" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A4" s="5">
         <v>3</v>
       </c>
-      <c r="B4" s="2">
-        <v>200000</v>
-      </c>
-      <c r="C4" s="4"/>
-      <c r="D4" s="2" t="s">
-        <v>7</v>
-      </c>
+      <c r="B4" s="3">
+        <v>1</v>
+      </c>
+      <c r="C4" s="2">
+        <v>500000</v>
+      </c>
+      <c r="D4" s="4"/>
       <c r="E4" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="F4" s="3">
+        <v>7</v>
+      </c>
+      <c r="F4" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="G4" s="3"/>
-    </row>
-    <row r="5" spans="1:7" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="G4" s="3">
+        <v>9</v>
+      </c>
+      <c r="H4" s="3"/>
+    </row>
+    <row r="5" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A5" s="5">
         <v>4</v>
       </c>
-      <c r="B5" s="2">
-        <v>300000</v>
-      </c>
-      <c r="C5" s="4"/>
-      <c r="D5" s="2" t="s">
-        <v>7</v>
-      </c>
+      <c r="B5" s="3">
+        <v>2</v>
+      </c>
+      <c r="C5" s="2">
+        <v>200000</v>
+      </c>
+      <c r="D5" s="4"/>
       <c r="E5" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="F5" s="3">
-        <v>10</v>
-      </c>
-      <c r="G5" s="3"/>
-    </row>
-    <row r="6" spans="1:7" ht="15.5" x14ac:dyDescent="0.35">
+        <v>7</v>
+      </c>
+      <c r="F5" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G5" s="3">
+        <v>12</v>
+      </c>
+      <c r="H5" s="3"/>
+    </row>
+    <row r="6" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A6" s="5">
         <v>5</v>
       </c>
-      <c r="B6" s="2">
-        <v>400000</v>
-      </c>
-      <c r="C6" s="4"/>
-      <c r="D6" s="2" t="s">
-        <v>7</v>
-      </c>
+      <c r="B6" s="3">
+        <v>2</v>
+      </c>
+      <c r="C6" s="2">
+        <v>200000</v>
+      </c>
+      <c r="D6" s="4"/>
       <c r="E6" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="F6" s="3">
-        <v>8</v>
+        <v>7</v>
+      </c>
+      <c r="F6" s="2" t="s">
+        <v>11</v>
       </c>
       <c r="G6" s="3">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" ht="15.5" x14ac:dyDescent="0.35">
+        <v>11</v>
+      </c>
+      <c r="H6" s="3"/>
+    </row>
+    <row r="7" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A7" s="5">
         <v>6</v>
       </c>
-      <c r="B7" s="2">
-        <v>100000</v>
-      </c>
-      <c r="C7" s="4"/>
-      <c r="D7" s="2" t="s">
-        <v>7</v>
-      </c>
+      <c r="B7" s="3">
+        <v>2</v>
+      </c>
+      <c r="C7" s="2">
+        <v>270000</v>
+      </c>
+      <c r="D7" s="4"/>
       <c r="E7" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="F7" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="F7" s="3">
+      <c r="G7" s="3">
+        <v>8</v>
+      </c>
+      <c r="H7" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A8" s="5">
+        <v>7</v>
+      </c>
+      <c r="B8" s="3">
+        <v>3</v>
+      </c>
+      <c r="C8" s="2">
+        <v>200000</v>
+      </c>
+      <c r="D8" s="4"/>
+      <c r="E8" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="F8" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G8" s="3">
+        <v>9</v>
+      </c>
+      <c r="H8" s="3"/>
+    </row>
+    <row r="9" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A9" s="5">
+        <v>8</v>
+      </c>
+      <c r="B9" s="3">
+        <v>3</v>
+      </c>
+      <c r="C9" s="2">
+        <v>200000</v>
+      </c>
+      <c r="D9" s="4"/>
+      <c r="E9" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="F9" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="G7" s="3"/>
-    </row>
-    <row r="8" spans="1:7" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A8" s="5">
-        <v>7</v>
-      </c>
-      <c r="B8" s="2">
-        <v>300000</v>
-      </c>
-      <c r="C8" s="4"/>
-      <c r="D8" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="E8" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="F8" s="3">
-        <v>12</v>
-      </c>
-      <c r="G8" s="3"/>
-    </row>
-    <row r="9" spans="1:7" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A9" s="5">
-        <v>8</v>
-      </c>
-      <c r="B9" s="2">
-        <v>100000</v>
-      </c>
-      <c r="C9" s="4"/>
-      <c r="D9" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="E9" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="F9" s="3">
-        <v>9</v>
-      </c>
-      <c r="G9" s="3"/>
-    </row>
-    <row r="10" spans="1:7" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="G9" s="3">
+        <v>10</v>
+      </c>
+      <c r="H9" s="3"/>
+    </row>
+    <row r="10" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A10" s="5">
         <v>9</v>
       </c>
-      <c r="B10" s="2">
+      <c r="B10" s="3">
+        <v>3</v>
+      </c>
+      <c r="C10" s="2">
+        <v>400000</v>
+      </c>
+      <c r="D10" s="4"/>
+      <c r="E10" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="F10" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="G10" s="3">
+        <v>12</v>
+      </c>
+      <c r="H10" s="3"/>
+    </row>
+    <row r="11" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A11" s="5">
+        <v>10</v>
+      </c>
+      <c r="B11" s="3">
+        <v>4</v>
+      </c>
+      <c r="C11" s="2">
+        <v>100000</v>
+      </c>
+      <c r="D11" s="4"/>
+      <c r="E11" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="F11" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G11" s="3">
+        <v>11</v>
+      </c>
+      <c r="H11" s="3"/>
+    </row>
+    <row r="12" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A12" s="5">
+        <v>11</v>
+      </c>
+      <c r="B12" s="3">
+        <v>4</v>
+      </c>
+      <c r="C12" s="2">
+        <v>100000</v>
+      </c>
+      <c r="D12" s="4"/>
+      <c r="E12" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="F12" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="G12" s="3">
+        <v>10</v>
+      </c>
+      <c r="H12" s="3"/>
+    </row>
+    <row r="13" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A13" s="5">
+        <v>12</v>
+      </c>
+      <c r="B13" s="3">
+        <v>4</v>
+      </c>
+      <c r="C13" s="2">
+        <v>100000</v>
+      </c>
+      <c r="D13" s="4"/>
+      <c r="E13" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="F13" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="G13" s="3">
+        <v>8</v>
+      </c>
+      <c r="H13" s="3"/>
+    </row>
+    <row r="14" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A14" s="5">
+        <v>13</v>
+      </c>
+      <c r="B14" s="3">
+        <v>5</v>
+      </c>
+      <c r="C14" s="2">
+        <v>300000</v>
+      </c>
+      <c r="D14" s="4"/>
+      <c r="E14" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="F14" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G14" s="3">
+        <v>12</v>
+      </c>
+      <c r="H14" s="3"/>
+    </row>
+    <row r="15" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A15" s="5">
+        <v>14</v>
+      </c>
+      <c r="B15" s="3">
+        <v>5</v>
+      </c>
+      <c r="C15" s="2">
+        <v>300000</v>
+      </c>
+      <c r="D15" s="4"/>
+      <c r="E15" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="F15" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="G15" s="3">
+        <v>9</v>
+      </c>
+      <c r="H15" s="3"/>
+    </row>
+    <row r="16" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A16" s="5">
+        <v>15</v>
+      </c>
+      <c r="B16" s="3">
+        <v>5</v>
+      </c>
+      <c r="C16" s="2">
+        <v>360000</v>
+      </c>
+      <c r="D16" s="4"/>
+      <c r="E16" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="F16" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="G16" s="3">
+        <v>12</v>
+      </c>
+      <c r="H16" s="3">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A17" s="5">
+        <v>16</v>
+      </c>
+      <c r="B17" s="3">
+        <v>6</v>
+      </c>
+      <c r="C17" s="2">
+        <v>300000</v>
+      </c>
+      <c r="D17" s="4"/>
+      <c r="E17" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="F17" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G17" s="3">
+        <v>10</v>
+      </c>
+      <c r="H17" s="3"/>
+    </row>
+    <row r="18" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A18" s="5">
+        <v>17</v>
+      </c>
+      <c r="B18" s="3">
+        <v>6</v>
+      </c>
+      <c r="C18" s="2">
+        <v>300000</v>
+      </c>
+      <c r="D18" s="4"/>
+      <c r="E18" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="F18" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="G18" s="3">
+        <v>11</v>
+      </c>
+      <c r="H18" s="3"/>
+    </row>
+    <row r="19" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A19" s="5">
+        <v>18</v>
+      </c>
+      <c r="B19" s="3">
+        <v>7</v>
+      </c>
+      <c r="C19" s="2">
+        <v>300000</v>
+      </c>
+      <c r="D19" s="4"/>
+      <c r="E19" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="F19" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G19" s="3">
+        <v>10</v>
+      </c>
+      <c r="H19" s="3"/>
+    </row>
+    <row r="20" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A20" s="5">
+        <v>19</v>
+      </c>
+      <c r="B20" s="3">
+        <v>9</v>
+      </c>
+      <c r="C20" s="2">
         <v>200000</v>
       </c>
-      <c r="C10" s="4"/>
-      <c r="D10" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="E10" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="F10" s="3">
-        <v>12</v>
-      </c>
-      <c r="G10" s="3"/>
-    </row>
-    <row r="11" spans="1:7" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A11" s="5">
-        <v>10</v>
-      </c>
-      <c r="B11" s="2">
+      <c r="D20" s="4"/>
+      <c r="E20" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="F20" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G20" s="3">
+        <v>8</v>
+      </c>
+      <c r="H20" s="3"/>
+    </row>
+    <row r="21" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A21" s="5">
+        <v>20</v>
+      </c>
+      <c r="B21" s="3">
+        <v>10</v>
+      </c>
+      <c r="C21" s="2">
         <v>400000</v>
       </c>
-      <c r="C11" s="4"/>
-      <c r="D11" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="E11" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="F11" s="3">
-        <v>11</v>
-      </c>
-      <c r="G11" s="3"/>
+      <c r="D21" s="4"/>
+      <c r="E21" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="F21" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G21" s="3">
+        <v>8</v>
+      </c>
+      <c r="H21" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
